--- a/Error-codes.xlsx
+++ b/Error-codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONDC\B2B\Forked RET Specs\ONDC-RET-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C472C2F-88CC-40E6-863B-24A7EFAB0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013D5336-9CE0-4AF4-8ACF-59E61FE8869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cancellation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="202">
   <si>
     <t>Code</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>Payment fails</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Payment Failed or TTL expires</t>
   </si>
 </sst>
 </file>
@@ -691,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -760,15 +766,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -780,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -830,19 +827,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1143,9 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1610,7 +1603,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>138</v>
@@ -1627,13 +1620,25 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
+      <c r="A23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
@@ -1654,7 +1659,7 @@
       <c r="F24" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1677,7 +1682,7 @@
       <c r="F25" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
@@ -1698,7 +1703,7 @@
       <c r="F26" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -1719,11 +1724,10 @@
       <c r="F27" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A23:G23"/>
+  <mergeCells count="1">
     <mergeCell ref="G24:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1737,7 +1741,7 @@
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
